--- a/data/match_13.xlsx
+++ b/data/match_13.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\euroleague\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F09FAA-0DF8-45A6-B4AD-E94C32A10D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -159,9 +153,6 @@
   </si>
   <si>
     <t>Муратов Игорь</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
   <si>
     <t>Еременко Владислав</t>
@@ -215,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,16 +562,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5.5</v>
       </c>
@@ -698,12 +689,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -733,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -751,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5.5</v>
       </c>
@@ -810,12 +801,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -851,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -863,12 +854,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20.5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -922,18 +913,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -981,12 +972,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -1040,12 +1031,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1099,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5.5</v>
       </c>
@@ -1158,13 +1149,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1217,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.5</v>
       </c>
@@ -1276,7 +1267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.5</v>
       </c>
@@ -1335,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5.5</v>
       </c>
@@ -1394,12 +1385,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -1453,7 +1444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1512,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -1571,36 +1562,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1612,25 +1603,25 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1659,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1689,12 +1680,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -1748,7 +1739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1807,7 +1798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -1866,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>13</v>
       </c>
@@ -1925,12 +1916,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20.5</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -1984,12 +1975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -2031,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -2043,12 +2034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2066,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2102,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -2162,7 +2153,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S28">
+  <sortState ref="A2:S28">
     <sortCondition ref="B1:B28"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/match_13.xlsx
+++ b/data/match_13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E1FFDF-08EA-4E50-9CD0-91778D6B7974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED57FF-37B0-453C-AFD0-1523C1E0E7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="55">
   <si>
     <t>№</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>2:3</t>
-  </si>
-  <si>
-    <t>Оксанич Кирилл</t>
   </si>
   <si>
     <t>Котов Александр</t>
@@ -568,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -830,7 +827,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1245,7 +1242,7 @@
         <v>14.5</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -1577,7 +1574,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1731,19 +1728,19 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14.5</v>
+        <v>2.5</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -1752,46 +1749,46 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V15" t="s">
         <v>27</v>
@@ -1800,42 +1797,42 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AA15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1859,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s">
         <v>23</v>
@@ -1877,10 +1874,10 @@
         <v>5</v>
       </c>
       <c r="V16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X16" t="s">
         <v>23</v>
@@ -1897,13 +1894,13 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1912,22 +1909,22 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" t="s">
         <v>24</v>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1948,28 +1945,28 @@
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
         <v>23</v>
       </c>
-      <c r="U17">
-        <v>5</v>
-      </c>
-      <c r="V17" t="s">
-        <v>24</v>
-      </c>
       <c r="W17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="s">
         <v>24</v>
@@ -1980,173 +1977,90 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>29</v>
       </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
         <v>28</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18" t="s">
         <v>23</v>
       </c>
-      <c r="Q18">
-        <v>5</v>
-      </c>
-      <c r="R18" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
-        <v>24</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
-        <v>23</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
-        <v>24</v>
-      </c>
       <c r="Y18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z18" t="s">
         <v>24</v>
       </c>
       <c r="AA18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>24</v>
-      </c>
-      <c r="S19">
-        <v>3</v>
-      </c>
-      <c r="T19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19">
-        <v>2</v>
-      </c>
-      <c r="X19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y19">
-        <v>3</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA19">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA19">
-    <sortCondition ref="B1:B19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/match_13.xlsx
+++ b/data/match_13.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED57FF-37B0-453C-AFD0-1523C1E0E7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F10B7A-2C55-4F65-B0F8-8D63012F974D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="55">
   <si>
     <t>№</t>
   </si>
@@ -63,9 +63,6 @@
     <t>челси – реал мадрид</t>
   </si>
   <si>
-    <t>рб лейпциг –аталанта</t>
-  </si>
-  <si>
     <t>1
 1</t>
   </si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>Муратов Игорь</t>
+  </si>
+  <si>
+    <t>рб лейпциг – аталанта</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,52 +608,52 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -661,79 +661,79 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
         <v>29</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
         <v>28</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>29</v>
       </c>
       <c r="AA2">
         <v>2</v>
@@ -744,79 +744,79 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y3">
         <v>3</v>
       </c>
       <c r="Z3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA3">
         <v>5</v>
@@ -827,79 +827,79 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -910,79 +910,79 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5">
         <v>6</v>
       </c>
       <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
         <v>29</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>30</v>
-      </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
         <v>29</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>30</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -993,79 +993,79 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA6">
         <v>5</v>
@@ -1076,79 +1076,79 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7">
         <v>3</v>
       </c>
       <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
         <v>28</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7" t="s">
-        <v>24</v>
-      </c>
-      <c r="W7">
-        <v>5</v>
-      </c>
-      <c r="X7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>29</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -1159,79 +1159,79 @@
         <v>7.5</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
         <v>29</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8" t="s">
-        <v>30</v>
-      </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA8">
         <v>5</v>
@@ -1242,79 +1242,79 @@
         <v>14.5</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S9">
         <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA9">
         <v>2</v>
@@ -1325,79 +1325,79 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>29</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>48</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
         <v>49</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10" t="s">
-        <v>50</v>
-      </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y10">
         <v>3</v>
       </c>
       <c r="Z10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA10">
         <v>3</v>
@@ -1408,79 +1408,79 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11" t="s">
         <v>28</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
-        <v>26</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y11">
-        <v>3</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>29</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -1491,79 +1491,79 @@
         <v>2.5</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
         <v>27</v>
       </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
         <v>28</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
         <v>29</v>
       </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="s">
         <v>27</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W12">
-        <v>3</v>
-      </c>
-      <c r="X12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>28</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -1574,7 +1574,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1586,61 +1586,64 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
+      <c r="Z13" t="s">
+        <v>29</v>
+      </c>
       <c r="AA13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1648,79 +1651,79 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>28</v>
       </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
         <v>29</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>30</v>
-      </c>
       <c r="S14">
         <v>5</v>
       </c>
       <c r="T14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -1731,79 +1734,79 @@
         <v>2.5</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="C15">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>29</v>
       </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>30</v>
-      </c>
       <c r="S15">
         <v>5</v>
       </c>
       <c r="T15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U15">
         <v>5</v>
       </c>
       <c r="V15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y15">
         <v>3</v>
       </c>
       <c r="Z15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA15">
         <v>5</v>
@@ -1814,79 +1817,79 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q16">
         <v>5</v>
       </c>
       <c r="R16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S16">
         <v>3</v>
       </c>
       <c r="T16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U16">
         <v>5</v>
       </c>
       <c r="V16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W16">
         <v>5</v>
       </c>
       <c r="X16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y16">
         <v>3</v>
       </c>
       <c r="Z16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA16">
         <v>5</v>
@@ -1897,79 +1900,79 @@
         <v>7.5</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>27</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>28</v>
-      </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA17">
         <v>5</v>
@@ -1980,79 +1983,79 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>28</v>
       </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
         <v>27</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18">
-        <v>3</v>
-      </c>
-      <c r="T18" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
-        <v>28</v>
-      </c>
       <c r="W18">
         <v>2</v>
       </c>
       <c r="X18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y18">
         <v>3</v>
       </c>
       <c r="Z18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA18">
         <v>5</v>
